--- a/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Unit.xlsx
+++ b/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Unit.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GS\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4E148F-73D1-42EE-89E6-EA828EA8E94A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1D5CE-5C62-4F87-AC2D-FA5B6388CFEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
     <sheet name="Definition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>No.</t>
   </si>
@@ -109,9 +110,6 @@
     <t>NetSize</t>
   </si>
   <si>
-    <t>CommonArea</t>
-  </si>
-  <si>
     <t>UnitCategory</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
     <t>Unit View Code</t>
   </si>
   <si>
-    <t>Common Area Size</t>
-  </si>
-  <si>
     <t>Unit Category Code</t>
   </si>
   <si>
@@ -173,6 +168,27 @@
   </si>
   <si>
     <t>Property Master</t>
+  </si>
+  <si>
+    <t>StrataStatus</t>
+  </si>
+  <si>
+    <t>LeaseStatus</t>
+  </si>
+  <si>
+    <t>Strata Status</t>
+  </si>
+  <si>
+    <t>Lease Status</t>
+  </si>
+  <si>
+    <t>01 - Available | 02 - Offered | 03 - Sold | 
+04 - Not for Sale | 05 - Maintenance</t>
+  </si>
+  <si>
+    <t>01 - Vacant | 02 - Offered | 03 - Leased | 
+04 - Pre Close | 05 - Not for Leased | 
+06 - Maintenance</t>
   </si>
 </sst>
 </file>
@@ -239,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -248,6 +264,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A87FA-2433-46F8-AC5D-D5A065704D53}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,16 +598,17 @@
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -611,13 +631,16 @@
         <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A5E21-C618-4BCA-95F1-7AD3EE4B7A52}">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +674,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -664,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -750,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -762,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -773,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -785,78 +808,90 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>130.1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -864,60 +899,89 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="K17">
+        <v>20230701</v>
+      </c>
+      <c r="M17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>20230701</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
